--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H2">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>723.5476553920694</v>
+        <v>2927.607538609119</v>
       </c>
       <c r="R2">
-        <v>6511.928898528624</v>
+        <v>26348.46784748206</v>
       </c>
       <c r="S2">
-        <v>0.01252631910473241</v>
+        <v>0.03125291162627432</v>
       </c>
       <c r="T2">
-        <v>0.01252631910473241</v>
+        <v>0.03125291162627432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H3">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>1191.982663629205</v>
+        <v>2838.729251870474</v>
       </c>
       <c r="R3">
-        <v>10727.84397266284</v>
+        <v>25548.56326683427</v>
       </c>
       <c r="S3">
-        <v>0.0206360356510831</v>
+        <v>0.03030411462930485</v>
       </c>
       <c r="T3">
-        <v>0.0206360356510831</v>
+        <v>0.03030411462930485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H4">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>1054.994440897542</v>
+        <v>2890.752536582854</v>
       </c>
       <c r="R4">
-        <v>9494.949968077881</v>
+        <v>26016.77282924568</v>
       </c>
       <c r="S4">
-        <v>0.01826444591716691</v>
+        <v>0.03085947565300167</v>
       </c>
       <c r="T4">
-        <v>0.01826444591716691</v>
+        <v>0.03085947565300167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H5">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>478.2088556103823</v>
+        <v>1153.328688556006</v>
       </c>
       <c r="R5">
-        <v>4303.87970049344</v>
+        <v>10379.95819700406</v>
       </c>
       <c r="S5">
-        <v>0.008278924932509996</v>
+        <v>0.0123120599684657</v>
       </c>
       <c r="T5">
-        <v>0.008278924932509998</v>
+        <v>0.0123120599684657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>2936.957704437971</v>
+        <v>4989.871646264613</v>
       </c>
       <c r="R6">
-        <v>26432.61933994174</v>
+        <v>44908.84481638151</v>
       </c>
       <c r="S6">
-        <v>0.05084567564932176</v>
+        <v>0.05326807488043614</v>
       </c>
       <c r="T6">
-        <v>0.05084567564932176</v>
+        <v>0.05326807488043615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>4838.385753050786</v>
@@ -883,10 +883,10 @@
         <v>43545.47177745707</v>
       </c>
       <c r="S7">
-        <v>0.08376388679148425</v>
+        <v>0.0516509266900444</v>
       </c>
       <c r="T7">
-        <v>0.08376388679148425</v>
+        <v>0.0516509266900444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>4282.335832674758</v>
+        <v>4927.055258750714</v>
       </c>
       <c r="R8">
-        <v>38541.02249407282</v>
+        <v>44343.49732875642</v>
       </c>
       <c r="S8">
-        <v>0.07413734914896103</v>
+        <v>0.05259749489942325</v>
       </c>
       <c r="T8">
-        <v>0.07413734914896104</v>
+        <v>0.05259749489942326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>1941.101145652018</v>
+        <v>1965.756012700835</v>
       </c>
       <c r="R9">
-        <v>17469.91031086816</v>
+        <v>17691.80411430751</v>
       </c>
       <c r="S9">
-        <v>0.03360504616910594</v>
+        <v>0.02098491622717439</v>
       </c>
       <c r="T9">
-        <v>0.03360504616910594</v>
+        <v>0.02098491622717439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H10">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>7363.242335841726</v>
+        <v>14126.3549190882</v>
       </c>
       <c r="R10">
-        <v>66269.18102257553</v>
+        <v>127137.1942717938</v>
       </c>
       <c r="S10">
-        <v>0.127475118545232</v>
+        <v>0.1508022219731669</v>
       </c>
       <c r="T10">
-        <v>0.127475118545232</v>
+        <v>0.1508022219731669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H11">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>12130.30979648193</v>
+        <v>13697.49749659807</v>
       </c>
       <c r="R11">
-        <v>109172.7881683374</v>
+        <v>123277.4774693826</v>
       </c>
       <c r="S11">
-        <v>0.210004317224493</v>
+        <v>0.1462240662782531</v>
       </c>
       <c r="T11">
-        <v>0.210004317224493</v>
+        <v>0.1462240662782531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H12">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>10736.23785994456</v>
+        <v>13948.52136991854</v>
       </c>
       <c r="R12">
-        <v>96626.14073950106</v>
+        <v>125536.6923292668</v>
       </c>
       <c r="S12">
-        <v>0.1858696388769322</v>
+        <v>0.1489038062452764</v>
       </c>
       <c r="T12">
-        <v>0.1858696388769323</v>
+        <v>0.1489038062452764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H13">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>4866.531823804712</v>
+        <v>5565.066416193557</v>
       </c>
       <c r="R13">
-        <v>43798.78641424241</v>
+        <v>50085.59774574201</v>
       </c>
       <c r="S13">
-        <v>0.08425116176387983</v>
+        <v>0.05940841680653495</v>
       </c>
       <c r="T13">
-        <v>0.08425116176387984</v>
+        <v>0.05940841680653495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H14">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I14">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J14">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>1094.816278794179</v>
+        <v>5910.407662922916</v>
       </c>
       <c r="R14">
-        <v>9853.346509147608</v>
+        <v>53193.66896630624</v>
       </c>
       <c r="S14">
-        <v>0.01895385599971343</v>
+        <v>0.06309501732337459</v>
       </c>
       <c r="T14">
-        <v>0.01895385599971344</v>
+        <v>0.06309501732337461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H15">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I15">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J15">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>1803.615856476733</v>
+        <v>5730.975515655966</v>
       </c>
       <c r="R15">
-        <v>16232.5427082906</v>
+        <v>51578.7796409037</v>
       </c>
       <c r="S15">
-        <v>0.03122485104086267</v>
+        <v>0.06117953617793705</v>
       </c>
       <c r="T15">
-        <v>0.03122485104086268</v>
+        <v>0.06117953617793705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H16">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I16">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J16">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>1596.335886550718</v>
+        <v>5836.00285164942</v>
       </c>
       <c r="R16">
-        <v>14367.02297895646</v>
+        <v>52524.02566484478</v>
       </c>
       <c r="S16">
-        <v>0.02763634511735766</v>
+        <v>0.06230072814334163</v>
       </c>
       <c r="T16">
-        <v>0.02763634511735767</v>
+        <v>0.06230072814334163</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H17">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I17">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J17">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>723.5886066164979</v>
+        <v>2328.400452865614</v>
       </c>
       <c r="R17">
-        <v>6512.297459548481</v>
+        <v>20955.60407579052</v>
       </c>
       <c r="S17">
-        <v>0.0125270280671637</v>
+        <v>0.02485623247799062</v>
       </c>
       <c r="T17">
-        <v>0.0125270280671637</v>
+        <v>0.02485623247799062</v>
       </c>
     </row>
   </sheetData>
